--- a/power-pivot-cardinality-demo.xlsx
+++ b/power-pivot-cardinality-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9011FE83-72ED-4F3B-BA11-F0913B0A1156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC7C5CB-C799-48D2-98CC-E35A7A8AC7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="11956" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dept" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="mgr" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">mgr!$A$1:$B$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">mgr!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,17 @@
           <x15:modelTable id="mgr_aecc3dd5-8156-4b5f-8373-7436877c5694" name="mgr" connection="Query - mgr"/>
         </x15:modelTables>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -379,8 +390,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7BF6A681-44FD-4A75-9B8E-3219A8C9439E}" name="mgr" displayName="mgr" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{7BF6A681-44FD-4A75-9B8E-3219A8C9439E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7BF6A681-44FD-4A75-9B8E-3219A8C9439E}" name="mgr" displayName="mgr" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20" xr:uid="{7BF6A681-44FD-4A75-9B8E-3219A8C9439E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{133CD689-3DE3-4F60-8C66-C62805553C19}" name="empno"/>
     <tableColumn id="2" xr3:uid="{825E4BE2-F401-49E2-9D40-CB0836057CE3}" name="mgr"/>
@@ -853,13 +864,19 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="H21" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.46484375" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -1418,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DEC757-453C-4DE6-88C3-445889F883AE}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A6" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1532,23 +1549,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>7852</v>
+        <v>7870</v>
       </c>
       <c r="B14">
-        <v>7852</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>7870</v>
+        <v>8215</v>
       </c>
       <c r="B15">
-        <v>3304</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>8215</v>
+        <v>8514</v>
       </c>
       <c r="B16">
         <v>2029</v>
@@ -1556,41 +1573,33 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>8514</v>
+        <v>9735</v>
       </c>
       <c r="B17">
-        <v>2029</v>
+        <v>9759</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>9735</v>
+        <v>9759</v>
       </c>
       <c r="B18">
-        <v>9759</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
+        <v>9844</v>
+      </c>
+      <c r="B19">
         <v>9759</v>
-      </c>
-      <c r="B19">
-        <v>3710</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>9844</v>
+        <v>9909</v>
       </c>
       <c r="B20">
-        <v>9759</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>9909</v>
-      </c>
-      <c r="B21">
         <v>9759</v>
       </c>
     </row>

--- a/power-pivot-cardinality-demo.xlsx
+++ b/power-pivot-cardinality-demo.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC7C5CB-C799-48D2-98CC-E35A7A8AC7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA739437-8053-4E37-8FE6-8C0496F6B60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dept" sheetId="1" r:id="rId1"/>
     <sheet name="loc" sheetId="2" r:id="rId2"/>
     <sheet name="emp" sheetId="3" r:id="rId3"/>
     <sheet name="mgr" sheetId="4" r:id="rId4"/>
+    <sheet name="mgr_evals" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">mgr!$A$1:$B$20</definedName>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>dept_no</t>
   </si>
@@ -289,6 +290,12 @@
   </si>
   <si>
     <t>deptno</t>
+  </si>
+  <si>
+    <t>eval_date</t>
+  </si>
+  <si>
+    <t>eval_score</t>
   </si>
 </sst>
 </file>
@@ -331,7 +338,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -379,7 +392,7 @@
     <tableColumn id="1" xr3:uid="{BD0A2CC1-4BE6-490E-A83C-738E94255286}" name="empno"/>
     <tableColumn id="2" xr3:uid="{61A66CFE-209F-4A97-B357-828D46FCDCDA}" name="ename"/>
     <tableColumn id="3" xr3:uid="{26544159-D5AC-48D4-8B4D-02D84D7B1823}" name="job"/>
-    <tableColumn id="4" xr3:uid="{EF1D48A6-335B-4726-B0AB-1E7E040C7092}" name="hiredate" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{EF1D48A6-335B-4726-B0AB-1E7E040C7092}" name="hiredate" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{CC4CF1C4-64D4-42D4-A2DF-2F5454948358}" name="sal"/>
     <tableColumn id="6" xr3:uid="{DA298FFA-375D-4368-8AB4-A7262202D9DE}" name="deptno"/>
     <tableColumn id="7" xr3:uid="{0DEEBC93-9668-401C-BE16-95B2D7F7E4ED}" name="dept_title"/>
@@ -395,6 +408,21 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{133CD689-3DE3-4F60-8C66-C62805553C19}" name="empno"/>
     <tableColumn id="2" xr3:uid="{825E4BE2-F401-49E2-9D40-CB0836057CE3}" name="mgr"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1E29DA0B-1B8C-445E-BD76-1D8951CE8A8E}" name="mgr_evals" displayName="mgr_evals" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{1E29DA0B-1B8C-445E-BD76-1D8951CE8A8E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+    <sortCondition ref="B1:B8"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D51C4FE8-483C-4A0E-8E4E-3A7475644C29}" name="mgr"/>
+    <tableColumn id="3" xr3:uid="{242716B3-6D2E-4C44-9459-06AC079052E6}" name="eval_date" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F2A50D2B-8496-4686-BDA2-EF49135A4978}" name="eval_score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,9 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -775,11 +801,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40732A85-65EB-4E2C-9824-965EC73A88C4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -863,9 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CA8247-F901-4C3A-8129-63E9423C2200}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="A1:H21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1437,9 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DEC757-453C-4DE6-88C3-445889F883AE}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1601,6 +1624,148 @@
       </c>
       <c r="B20">
         <v>9759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005E73B-1FA8-4CC7-AC7F-4A61B6360426}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>9759</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39814</v>
+      </c>
+      <c r="C2">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>7852</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39814</v>
+      </c>
+      <c r="C3">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3304</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39814</v>
+      </c>
+      <c r="C4">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2029</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39814</v>
+      </c>
+      <c r="C5">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3710</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39814</v>
+      </c>
+      <c r="C6">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>9759</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39995</v>
+      </c>
+      <c r="C7">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7852</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39995</v>
+      </c>
+      <c r="C8">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>3304</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39995</v>
+      </c>
+      <c r="C9">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39995</v>
+      </c>
+      <c r="C10">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3710</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39995</v>
+      </c>
+      <c r="C11">
+        <v>7.59</v>
       </c>
     </row>
   </sheetData>
